--- a/template.xlsx
+++ b/template.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Analysis" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,6 +436,135 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://example.com/test1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>param1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Details of test case 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://example.com/test2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>param2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Details of test case 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://example.com/test3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>param3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Details of test case 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://example.com/test4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>param4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Details of test case 4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>Metric</t>
         </is>
       </c>
@@ -475,6 +605,22 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://example.com/failure1</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>example_dimension_1</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -485,6 +631,22 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://example.com/failure2</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>example_dimension_2</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -528,34 +690,6 @@
         <is>
           <t>0%</t>
         </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://example.com</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>example_dimension</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
